--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/15.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/15.xlsx
@@ -479,13 +479,13 @@
         <v>-10.17974257818556</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.51459797629792</v>
+        <v>-21.49723222390664</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.09033431458392299</v>
+        <v>-0.09089655037361821</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.916800641906162</v>
+        <v>-8.92239855476878</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.754081909498186</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.66561939841693</v>
+        <v>-21.6492656704471</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2205041224155335</v>
+        <v>-0.2206116805666056</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.433282751775142</v>
+        <v>-8.438401541964801</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.180718710538381</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.86457753286603</v>
+        <v>-21.85213501038973</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3701272885705986</v>
+        <v>-0.3692619343551546</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.332138977712406</v>
+        <v>-8.339193814621364</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.504048509556826</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.98705204388912</v>
+        <v>-21.97540154052526</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.39332562615411</v>
+        <v>-0.3922549336502556</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.826571666611597</v>
+        <v>-7.837395927814947</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.733821530656567</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.93828908939851</v>
+        <v>-21.93064757166552</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.51547746272398</v>
+        <v>-0.5143041010759204</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.131897569898519</v>
+        <v>-7.141753807742219</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.906239300993886</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.20956052441615</v>
+        <v>-22.20167944534668</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6523941000319331</v>
+        <v>-0.6480966629959148</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.551391561541639</v>
+        <v>-6.561981150415376</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.049103458355855</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.59808012211615</v>
+        <v>-22.59088350400805</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8205514912194727</v>
+        <v>-0.8163225002795913</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.13171921208566</v>
+        <v>-6.141731898149102</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.187337066363421</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.87620594476121</v>
+        <v>-22.86929777805825</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9395156953121142</v>
+        <v>-0.933952005497565</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.81488223306837</v>
+        <v>-5.826332287150684</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.341261724891222</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.33386098856625</v>
+        <v>-23.32895242567187</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.038625642518214</v>
+        <v>-1.03249971691397</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.509177522687045</v>
+        <v>-5.519380880018296</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.535890030156127</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.7588721335209</v>
+        <v>-23.75553783083766</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.294051806280185</v>
+        <v>-1.286952968309425</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.119856127860873</v>
+        <v>-5.130861282318299</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.783840551723395</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.22810923459366</v>
+        <v>-24.22539094677565</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.213925872738316</v>
+        <v>-1.207335491481715</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.949308012315413</v>
+        <v>-4.9582646728956</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.09130618879969</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.82248046642511</v>
+        <v>-24.82079375905602</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.138767170173233</v>
+        <v>-1.130812756000762</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.858108478219981</v>
+        <v>-4.864273515879161</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.473776620900106</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.42646837476378</v>
+        <v>-25.42578880280928</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.067524562108548</v>
+        <v>-1.058255005088877</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.722956772390984</v>
+        <v>-4.72839823703386</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.9330140221610185</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.04469307109891</v>
+        <v>-26.04392060801394</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.022482141843661</v>
+        <v>-1.013061025611116</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.73087207450852</v>
+        <v>-4.734142820102486</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.4647167860544262</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.817063264941</v>
+        <v>-26.81609035257449</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9288967723971749</v>
+        <v>-0.9202041181878001</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.669251031957923</v>
+        <v>-4.670013717029162</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.06814931991345308</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.58222706266126</v>
+        <v>-27.58285774454709</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8085049782993943</v>
+        <v>-0.8007901254634026</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.691955579847876</v>
+        <v>-4.691540014264189</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2647863943908858</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.45498323450171</v>
+        <v>-28.45387587444636</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6458428308302671</v>
+        <v>-0.6393257846766695</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.939564221629651</v>
+        <v>-4.938058407514641</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5452766884736291</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.11599651893609</v>
+        <v>-29.11651719816741</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3903824440202272</v>
+        <v>-0.3827067032391707</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.208117368829289</v>
+        <v>-5.202519455966671</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7808636457864054</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.53936495758345</v>
+        <v>-29.54019608875083</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1864717456149385</v>
+        <v>-0.1789573420604902</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.533862118358098</v>
+        <v>-5.529017112552985</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9764912853867727</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.1310472356381</v>
+        <v>-30.13164124997243</v>
       </c>
       <c r="F21" t="n">
-        <v>0.225764424396463</v>
+        <v>0.2338166187062719</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.849369287507588</v>
+        <v>-5.842549122928241</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.135909762899983</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.68666575453895</v>
+        <v>-30.68648241678144</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2731535679574696</v>
+        <v>0.2792159364724441</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.118646007723529</v>
+        <v>-6.112148517597399</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.259698454112137</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.01787396924153</v>
+        <v>-31.01873443445011</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5576350995295166</v>
+        <v>0.5635459088316167</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.409639696442307</v>
+        <v>-6.402545747478413</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.345385702662296</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.2251287483438</v>
+        <v>-31.22542697776268</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7545251840739153</v>
+        <v>0.7608662259803041</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.668615279189659</v>
+        <v>-6.660621752962252</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.39167851012135</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.52759449167579</v>
+        <v>-31.52756026862772</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9861321063802772</v>
+        <v>0.9908793320480517</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.717520014879409</v>
+        <v>-6.708783359608232</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.397214903886938</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.43752676267005</v>
+        <v>-31.43704519549366</v>
       </c>
       <c r="F26" t="n">
-        <v>1.010269133282236</v>
+        <v>1.015167918162885</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.900442206805032</v>
+        <v>-6.8899699540961</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.359411989556289</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.53852875553364</v>
+        <v>-31.53777095946927</v>
       </c>
       <c r="F27" t="n">
-        <v>1.261163187678578</v>
+        <v>1.266677987424458</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.161378281306016</v>
+        <v>-7.15108692185116</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.277356888965687</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.35396630180417</v>
+        <v>-31.35306428003722</v>
       </c>
       <c r="F28" t="n">
-        <v>1.417821634715133</v>
+        <v>1.422192406854155</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.335133585356173</v>
+        <v>-7.322612838770004</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.151781505518607</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.15991428574602</v>
+        <v>-31.15869203402929</v>
       </c>
       <c r="F29" t="n">
-        <v>1.440746187914097</v>
+        <v>1.445664528822214</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.633539008485195</v>
+        <v>-7.620475582136797</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9813972202424647</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.05021719416961</v>
+        <v>-31.04781424729452</v>
       </c>
       <c r="F30" t="n">
-        <v>1.564809626168931</v>
+        <v>1.568691497621262</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.666295354493524</v>
+        <v>-7.651672334954582</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.765293356893453</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.76957842199496</v>
+        <v>-30.76789660363274</v>
       </c>
       <c r="F31" t="n">
-        <v>1.479462233293197</v>
+        <v>1.485446377698301</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.618764429733377</v>
+        <v>-7.606649470717162</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.5054546490824601</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.36518177449465</v>
+        <v>-30.36331906287836</v>
       </c>
       <c r="F32" t="n">
-        <v>1.448456151743222</v>
+        <v>1.453022484156921</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.614217653347146</v>
+        <v>-7.603183164848519</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.2002408573835475</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.86492881385819</v>
+        <v>-29.86311499231056</v>
       </c>
       <c r="F33" t="n">
-        <v>1.39740025303203</v>
+        <v>1.403086168018252</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.867952220733165</v>
+        <v>-7.856619502815656</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.1521635312844826</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.28299521549616</v>
+        <v>-29.28008136740348</v>
       </c>
       <c r="F34" t="n">
-        <v>1.395444650285264</v>
+        <v>1.400719888694665</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.873383907362308</v>
+        <v>-7.861298282387294</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.5509382067249649</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.81296365080753</v>
+        <v>-28.81107893866033</v>
       </c>
       <c r="F35" t="n">
-        <v>1.410551681504031</v>
+        <v>1.416071370256778</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.857528858092903</v>
+        <v>-7.846865934116161</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.9968479656506316</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.18543761890809</v>
+        <v>-28.18404669645446</v>
       </c>
       <c r="F36" t="n">
-        <v>1.334664516915777</v>
+        <v>1.339157514226472</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.69088217002724</v>
+        <v>-7.682732195580092</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.491363598948323</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.53718219789294</v>
+        <v>-27.53560304867493</v>
       </c>
       <c r="F37" t="n">
-        <v>1.425477819468722</v>
+        <v>1.430381493356238</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.60799883661243</v>
+        <v>-7.600337762851975</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.031575948412668</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.96088317994504</v>
+        <v>-26.96063872960169</v>
       </c>
       <c r="F38" t="n">
-        <v>1.265304176494854</v>
+        <v>1.271366545009829</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.548748962392288</v>
+        <v>-7.542564368705641</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.610977067205311</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.19693674493464</v>
+        <v>-26.19812966261017</v>
       </c>
       <c r="F39" t="n">
-        <v>1.344354528526002</v>
+        <v>1.348803524774895</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.465195835036712</v>
+        <v>-7.460037932792116</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.227039172317091</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.55371944549585</v>
+        <v>-25.55420345717567</v>
       </c>
       <c r="F40" t="n">
-        <v>1.341636240707998</v>
+        <v>1.346847922028129</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.141079124794586</v>
+        <v>-7.137006582074445</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.873040139791991</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.98542617629252</v>
+        <v>-24.98697599146933</v>
       </c>
       <c r="F41" t="n">
-        <v>1.392794808563396</v>
+        <v>1.397292694880957</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.135011867272744</v>
+        <v>-7.132611364901089</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.533541301350319</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.30281814852699</v>
+        <v>-24.30379594990037</v>
       </c>
       <c r="F42" t="n">
-        <v>1.396715792070661</v>
+        <v>1.402064365583066</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.869001003643902</v>
+        <v>-6.865348915514316</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.20334523947914</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.61919320733314</v>
+        <v>-23.62010745161725</v>
       </c>
       <c r="F43" t="n">
-        <v>1.348192398916531</v>
+        <v>1.35329652208559</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.818067330104381</v>
+        <v>-6.815710828794528</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.873418678194041</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.93214596133244</v>
+        <v>-22.93369577650926</v>
       </c>
       <c r="F44" t="n">
-        <v>1.457784376845296</v>
+        <v>1.462468045423801</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.735912458712743</v>
+        <v>-6.733546179389156</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.525554245720685</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.09885874192859</v>
+        <v>-22.10056500532515</v>
       </c>
       <c r="F45" t="n">
-        <v>1.505926427463808</v>
+        <v>1.511436338202821</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.589193362636625</v>
+        <v>-6.587765772631486</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.152336704684576</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.5785266300897</v>
+        <v>-21.58075112821415</v>
       </c>
       <c r="F46" t="n">
-        <v>1.499355602234674</v>
+        <v>1.50492418105609</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.472698107011776</v>
+        <v>-6.469784258919095</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.746916845841743</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.89566437396709</v>
+        <v>-20.89954135641256</v>
       </c>
       <c r="F47" t="n">
-        <v>1.577609046146515</v>
+        <v>1.582507831027163</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.45354786711407</v>
+        <v>-6.451289145941555</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.29592648586946</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.25982458589047</v>
+        <v>-20.265094935293</v>
       </c>
       <c r="F48" t="n">
-        <v>1.624347951794221</v>
+        <v>1.628743168967578</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.433102040396632</v>
+        <v>-6.432046014913378</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.789948618464914</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.48836863633249</v>
+        <v>-19.49402521727751</v>
       </c>
       <c r="F49" t="n">
-        <v>1.766622940628313</v>
+        <v>1.771360388282354</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.197515466500601</v>
+        <v>-6.196581666189021</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.227541757852858</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.09550760053467</v>
+        <v>-19.10244510127883</v>
       </c>
       <c r="F50" t="n">
-        <v>1.763469531199153</v>
+        <v>1.769272782350181</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.208540176985494</v>
+        <v>-6.207117475987222</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.600857019328121</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.51575938824217</v>
+        <v>-18.52231065744383</v>
       </c>
       <c r="F51" t="n">
-        <v>1.732893682253467</v>
+        <v>1.736521325348718</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.26168368162886</v>
+        <v>-6.259273401243471</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.897891823466923</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.04050391971623</v>
+        <v>-18.04437601315483</v>
       </c>
       <c r="F52" t="n">
-        <v>1.738002694429393</v>
+        <v>1.742950369378711</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.272571499921479</v>
+        <v>-6.270821235463123</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.12075872411207</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.63993292008929</v>
+        <v>-17.64453836455792</v>
       </c>
       <c r="F53" t="n">
-        <v>1.823653205730876</v>
+        <v>1.828767106913669</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.182418213295568</v>
+        <v>-6.181640861203729</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-10.26503423904757</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.0125706699199</v>
+        <v>-17.01771879415076</v>
       </c>
       <c r="F54" t="n">
-        <v>1.880360796380223</v>
+        <v>1.885870707119236</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.183899582376243</v>
+        <v>-6.182775110796853</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-10.31877400311237</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.8000602084357</v>
+        <v>-16.80389807882623</v>
       </c>
       <c r="F55" t="n">
-        <v>1.864652417316825</v>
+        <v>1.868729849043832</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.418894586441377</v>
+        <v>-6.417452329415637</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-10.28713512195118</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.24210229974904</v>
+        <v>-16.24509926095845</v>
       </c>
       <c r="F56" t="n">
-        <v>1.893913123415311</v>
+        <v>1.897457653393824</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.31596143586535</v>
+        <v>-6.313898274967511</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-10.17236721536049</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.14485017515236</v>
+        <v>-16.1476075750253</v>
       </c>
       <c r="F57" t="n">
-        <v>1.93478522082272</v>
+        <v>1.938417752924838</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.496282676137773</v>
+        <v>-6.492679478076857</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.969757558811629</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.92514309556007</v>
+        <v>-15.92688358200469</v>
       </c>
       <c r="F58" t="n">
-        <v>1.818167740026198</v>
+        <v>1.821541154764369</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.649328147099679</v>
+        <v>-6.645705393011295</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.684396699228719</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.66366434129686</v>
+        <v>-15.66504304123333</v>
       </c>
       <c r="F59" t="n">
-        <v>1.87551579057511</v>
+        <v>1.87912876664976</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.422786235907441</v>
+        <v>-6.420859967201877</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.324822454147112</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.43720065421449</v>
+        <v>-15.43768466589432</v>
       </c>
       <c r="F60" t="n">
-        <v>1.942377848487039</v>
+        <v>1.945995713568556</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.454515890473719</v>
+        <v>-6.45367498129261</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.893177961484612</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.29004154752035</v>
+        <v>-15.28939130960705</v>
       </c>
       <c r="F61" t="n">
-        <v>1.886809396437684</v>
+        <v>1.890270813299459</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.290455487040655</v>
+        <v>-6.290523933136791</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.392688397262269</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.25773499014378</v>
+        <v>-15.25603361575409</v>
       </c>
       <c r="F62" t="n">
-        <v>1.885782704995631</v>
+        <v>1.890637488814478</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.372048122642598</v>
+        <v>-6.371666780106978</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.838204058460644</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.20205897994335</v>
+        <v>-15.19920868893994</v>
       </c>
       <c r="F63" t="n">
-        <v>1.870851678024073</v>
+        <v>1.874704215435202</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.413453121798501</v>
+        <v>-6.415002936975313</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.235584441368455</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.24815253668462</v>
+        <v>-15.24416310708122</v>
       </c>
       <c r="F64" t="n">
-        <v>1.715004806127425</v>
+        <v>1.719287576142843</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.406202724614865</v>
+        <v>-6.408084992258628</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.587274600427348</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.29069667444052</v>
+        <v>-15.28537254596245</v>
       </c>
       <c r="F65" t="n">
-        <v>1.710663368029605</v>
+        <v>1.715322591573775</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.510084342523075</v>
+        <v>-6.512431065819194</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.908446433851135</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.29697904826451</v>
+        <v>-15.29132735632635</v>
       </c>
       <c r="F66" t="n">
-        <v>1.802596253155073</v>
+        <v>1.806160339161055</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.456422603151816</v>
+        <v>-6.45814353356897</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.205178779173861</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.17450453724142</v>
+        <v>-15.16811949427323</v>
       </c>
       <c r="F67" t="n">
-        <v>1.624836852480913</v>
+        <v>1.628151599136681</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.219550220449786</v>
+        <v>-6.222918746181091</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.480142514779573</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.30216139554343</v>
+        <v>-15.29430965051517</v>
       </c>
       <c r="F68" t="n">
-        <v>1.586565706726703</v>
+        <v>1.589978233519809</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.342254514795618</v>
+        <v>-6.346028828096877</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.739941736485565</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.21019917637676</v>
+        <v>-15.20209320299142</v>
       </c>
       <c r="F69" t="n">
-        <v>1.555989857781017</v>
+        <v>1.560776195503726</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.198033701228494</v>
+        <v>-6.198894166437071</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.987005084782687</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.26003771237809</v>
+        <v>-15.25175573474554</v>
       </c>
       <c r="F70" t="n">
-        <v>1.479882687883752</v>
+        <v>1.48292853916184</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.144181290589426</v>
+        <v>-6.14721736385378</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.22098085008207</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.28409162616332</v>
+        <v>-15.27543319500201</v>
       </c>
       <c r="F71" t="n">
-        <v>1.371767190028794</v>
+        <v>1.374979267540358</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.147222252860647</v>
+        <v>-6.149735202390241</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.440404881145505</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.40258159658987</v>
+        <v>-15.39366893707148</v>
       </c>
       <c r="F72" t="n">
-        <v>1.293195960670604</v>
+        <v>1.295899581468008</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.01081896127372</v>
+        <v>-6.012852788130356</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6451379482938071</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.51189001212035</v>
+        <v>-15.50311913380111</v>
       </c>
       <c r="F73" t="n">
-        <v>1.224119182647963</v>
+        <v>1.226700578273694</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.15908787252665</v>
+        <v>-6.160794135923203</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1664882232109192</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.62975907867481</v>
+        <v>-15.62166288330319</v>
       </c>
       <c r="F74" t="n">
-        <v>1.092174665323662</v>
+        <v>1.095924533590586</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.070435511008881</v>
+        <v>-6.071784876904149</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.9969393403999676</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.8809855855381</v>
+        <v>-15.87211203807465</v>
       </c>
       <c r="F75" t="n">
-        <v>1.034103041758447</v>
+        <v>1.037779574922367</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.104658559077285</v>
+        <v>-6.105514135278995</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>1.845113637212978</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.90238965760145</v>
+        <v>-15.89336943993199</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8231472844579336</v>
+        <v>0.828241629613259</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.222229396212856</v>
+        <v>-6.222830744057487</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>2.710192724959532</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.96362446860956</v>
+        <v>-15.95613939909631</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6755970572144404</v>
+        <v>0.679992274387797</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.153421513567896</v>
+        <v>-6.153739299014244</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>3.585802146471164</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.1082852927947</v>
+        <v>-16.10172424557931</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6915205525799825</v>
+        <v>0.6956468743756586</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.125891515900297</v>
+        <v>-6.126131077236776</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>4.466774037553112</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.23221672786413</v>
+        <v>-16.22542589732599</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4068385717263919</v>
+        <v>0.4115564633529649</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.143247490277846</v>
+        <v>-6.142484805206607</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>5.345332324150065</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.71329500356856</v>
+        <v>-16.70721796803299</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3913990880406745</v>
+        <v>0.396542323264669</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.103881206985446</v>
+        <v>-6.101441592558856</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>6.201924788324337</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.18474193574517</v>
+        <v>-17.18113873768426</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2195896087235494</v>
+        <v>0.2244786155904644</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.204296519025012</v>
+        <v>-6.200659097916027</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>7.02702408553498</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.6178981661401</v>
+        <v>-17.61413851985944</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.08735690940197179</v>
+        <v>-0.08330392270929929</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.25355326320918</v>
+        <v>-6.249901175079595</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>7.806243143800499</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.10170450767627</v>
+        <v>-18.09963645777157</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.09713003412893477</v>
+        <v>-0.09284726411351728</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.294625809898132</v>
+        <v>-6.2893847945368</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>8.517665626583955</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.87916415766682</v>
+        <v>-18.87731611307113</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1935363605376306</v>
+        <v>-0.1895322639136273</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.318591721559749</v>
+        <v>-6.31176177896667</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>9.145937033790304</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.56766832771385</v>
+        <v>-19.5666123022306</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3494223444892137</v>
+        <v>-0.3448462340617813</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.415252276325525</v>
+        <v>-6.407468977393397</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>9.677496445777939</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.22581665412421</v>
+        <v>-20.22540597754739</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5080363942725354</v>
+        <v>-0.5027318218219327</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.669353519226562</v>
+        <v>-6.660734200120191</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>10.09415020980343</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.97774102124886</v>
+        <v>-20.97746234785745</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6099721874477121</v>
+        <v>-0.6047018380451777</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.999033919283239</v>
+        <v>-6.98968124914683</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>10.37943117366772</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.82642372327663</v>
+        <v>-21.82588593252127</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7232455875472645</v>
+        <v>-0.7181316863644714</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.277335746175505</v>
+        <v>-7.265636352742978</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>10.52798010827375</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.82045659945777</v>
+        <v>-22.8210579473024</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9374280893799415</v>
+        <v>-0.9325879725816957</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.353154464667622</v>
+        <v>-7.340858612397331</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>10.53234170191263</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.89056242248812</v>
+        <v>-23.89340782448466</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.189216832032928</v>
+        <v>-1.185036731161716</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.717585925534329</v>
+        <v>-7.705275406243437</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>10.38536031751209</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.10667843559888</v>
+        <v>-25.11120076695077</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.120061829900416</v>
+        <v>-1.116937754512458</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.087688634366657</v>
+        <v>-8.075187443807955</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>10.09584932453154</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.37840201281393</v>
+        <v>-26.38405370475208</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.335662143724499</v>
+        <v>-1.333227418304775</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.377323179176432</v>
+        <v>-8.364274419848638</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>9.67267788382027</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.64516324805906</v>
+        <v>-27.65282187731608</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.616379140009021</v>
+        <v>-1.612120815027938</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.688405797111365</v>
+        <v>-8.675376593811036</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>9.122524449547349</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.15160315594783</v>
+        <v>-29.1610340501941</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.861259715959057</v>
+        <v>-1.858252976735904</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.024275679861555</v>
+        <v>-9.01127092159556</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>8.469907027031189</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.78388610059099</v>
+        <v>-30.79357611220121</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.122831361352741</v>
+        <v>-2.120812201516705</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.30242105853408</v>
+        <v>-9.290149651298123</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>7.731168172310078</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.62710769101062</v>
+        <v>-32.63735016039681</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.141096691007535</v>
+        <v>-2.139556653844457</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.657270065941633</v>
+        <v>-9.645683119667044</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>6.93447949520204</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.34780832484194</v>
+        <v>-34.35906770765644</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.494630555567888</v>
+        <v>-2.492938959191936</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.02185308602122</v>
+        <v>-10.01065726029598</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>6.079691675787822</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.33823791202439</v>
+        <v>-36.35067065648695</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.890087654012038</v>
+        <v>-2.88810271722407</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.46086634664271</v>
+        <v>-10.45159190061617</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>5.222176916546704</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.37169075963569</v>
+        <v>-38.38588599107378</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.164033375785883</v>
+        <v>-3.161647540434829</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.7994105161491</v>
+        <v>-10.79072763995346</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>4.322875284565673</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.57648374190489</v>
+        <v>-40.59087697812109</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.524744302426868</v>
+        <v>-3.522260686938475</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.98161402406529</v>
+        <v>-10.97236402307309</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>3.463142067052396</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.48885300094674</v>
+        <v>-42.50265466733204</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.957128069736826</v>
+        <v>-3.955333804216668</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.23760242361696</v>
+        <v>-11.22992179382903</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.523883059167547</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.75457523129487</v>
+        <v>-44.7684086762248</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.194137344631129</v>
+        <v>-4.19128216462085</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.37809292494462</v>
+        <v>-11.37004561964168</v>
       </c>
     </row>
   </sheetData>
